--- a/sequences/12_retrieval_2.xlsx
+++ b/sequences/12_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1944,6 +1944,30 @@
       <c r="F4" t="s">
         <v>207</v>
       </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -2008,6 +2032,30 @@
       <c r="F6" t="s">
         <v>207</v>
       </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2116,6 +2164,30 @@
       <c r="F9" t="s">
         <v>207</v>
       </c>
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2268,6 +2340,30 @@
       <c r="F13" t="s">
         <v>207</v>
       </c>
+      <c r="G13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2508,6 +2604,30 @@
       <c r="F19" t="s">
         <v>207</v>
       </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" t="s">
+        <v>207</v>
+      </c>
+      <c r="N19" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2616,6 +2736,30 @@
       <c r="F22" t="s">
         <v>207</v>
       </c>
+      <c r="G22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2680,6 +2824,30 @@
       <c r="F24" t="s">
         <v>207</v>
       </c>
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s">
+        <v>207</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2700,6 +2868,30 @@
       <c r="F25" t="s">
         <v>207</v>
       </c>
+      <c r="G25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2720,6 +2912,30 @@
       <c r="F26" t="s">
         <v>207</v>
       </c>
+      <c r="G26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="s">
+        <v>207</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2872,6 +3088,30 @@
       <c r="F30" t="s">
         <v>207</v>
       </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3024,6 +3264,30 @@
       <c r="F34" t="s">
         <v>207</v>
       </c>
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3044,6 +3308,30 @@
       <c r="F35" t="s">
         <v>207</v>
       </c>
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" t="s">
+        <v>207</v>
+      </c>
+      <c r="N35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3108,6 +3396,30 @@
       <c r="F37" t="s">
         <v>207</v>
       </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3128,6 +3440,30 @@
       <c r="F38" t="s">
         <v>207</v>
       </c>
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38" t="s">
+        <v>207</v>
+      </c>
+      <c r="N38" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3192,6 +3528,30 @@
       <c r="F40" t="s">
         <v>207</v>
       </c>
+      <c r="G40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" t="s">
+        <v>207</v>
+      </c>
+      <c r="M40" t="s">
+        <v>207</v>
+      </c>
+      <c r="N40" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3212,6 +3572,30 @@
       <c r="F41" t="s">
         <v>207</v>
       </c>
+      <c r="G41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" t="s">
+        <v>207</v>
+      </c>
+      <c r="M41" t="s">
+        <v>207</v>
+      </c>
+      <c r="N41" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3320,6 +3704,30 @@
       <c r="F44" t="s">
         <v>207</v>
       </c>
+      <c r="G44" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" t="s">
+        <v>207</v>
+      </c>
+      <c r="I44" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" t="s">
+        <v>207</v>
+      </c>
+      <c r="L44" t="s">
+        <v>207</v>
+      </c>
+      <c r="M44" t="s">
+        <v>207</v>
+      </c>
+      <c r="N44" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3340,6 +3748,30 @@
       <c r="F45" t="s">
         <v>207</v>
       </c>
+      <c r="G45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K45" t="s">
+        <v>207</v>
+      </c>
+      <c r="L45" t="s">
+        <v>207</v>
+      </c>
+      <c r="M45" t="s">
+        <v>207</v>
+      </c>
+      <c r="N45" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3360,6 +3792,30 @@
       <c r="F46" t="s">
         <v>207</v>
       </c>
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" t="s">
+        <v>207</v>
+      </c>
+      <c r="J46" t="s">
+        <v>207</v>
+      </c>
+      <c r="K46" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" t="s">
+        <v>207</v>
+      </c>
+      <c r="M46" t="s">
+        <v>207</v>
+      </c>
+      <c r="N46" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3600,6 +4056,30 @@
       <c r="F52" t="s">
         <v>207</v>
       </c>
+      <c r="G52" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="J52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" t="s">
+        <v>207</v>
+      </c>
+      <c r="L52" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52" t="s">
+        <v>207</v>
+      </c>
+      <c r="N52" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3708,6 +4188,30 @@
       <c r="F55" t="s">
         <v>207</v>
       </c>
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" t="s">
+        <v>207</v>
+      </c>
+      <c r="L55" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" t="s">
+        <v>207</v>
+      </c>
+      <c r="N55" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3772,6 +4276,30 @@
       <c r="F57" t="s">
         <v>207</v>
       </c>
+      <c r="G57" t="s">
+        <v>207</v>
+      </c>
+      <c r="H57" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" t="s">
+        <v>207</v>
+      </c>
+      <c r="K57" t="s">
+        <v>207</v>
+      </c>
+      <c r="L57" t="s">
+        <v>207</v>
+      </c>
+      <c r="M57" t="s">
+        <v>207</v>
+      </c>
+      <c r="N57" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -4012,6 +4540,30 @@
       <c r="F63" t="s">
         <v>207</v>
       </c>
+      <c r="G63" t="s">
+        <v>207</v>
+      </c>
+      <c r="H63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>207</v>
+      </c>
+      <c r="J63" t="s">
+        <v>207</v>
+      </c>
+      <c r="K63" t="s">
+        <v>207</v>
+      </c>
+      <c r="L63" t="s">
+        <v>207</v>
+      </c>
+      <c r="M63" t="s">
+        <v>207</v>
+      </c>
+      <c r="N63" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4120,6 +4672,30 @@
       <c r="F66" t="s">
         <v>207</v>
       </c>
+      <c r="G66" t="s">
+        <v>207</v>
+      </c>
+      <c r="H66" t="s">
+        <v>207</v>
+      </c>
+      <c r="I66" t="s">
+        <v>207</v>
+      </c>
+      <c r="J66" t="s">
+        <v>207</v>
+      </c>
+      <c r="K66" t="s">
+        <v>207</v>
+      </c>
+      <c r="L66" t="s">
+        <v>207</v>
+      </c>
+      <c r="M66" t="s">
+        <v>207</v>
+      </c>
+      <c r="N66" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4140,6 +4716,30 @@
       <c r="F67" t="s">
         <v>207</v>
       </c>
+      <c r="G67" t="s">
+        <v>207</v>
+      </c>
+      <c r="H67" t="s">
+        <v>207</v>
+      </c>
+      <c r="I67" t="s">
+        <v>207</v>
+      </c>
+      <c r="J67" t="s">
+        <v>207</v>
+      </c>
+      <c r="K67" t="s">
+        <v>207</v>
+      </c>
+      <c r="L67" t="s">
+        <v>207</v>
+      </c>
+      <c r="M67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N67" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4160,6 +4760,30 @@
       <c r="F68" t="s">
         <v>207</v>
       </c>
+      <c r="G68" t="s">
+        <v>207</v>
+      </c>
+      <c r="H68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" t="s">
+        <v>207</v>
+      </c>
+      <c r="L68" t="s">
+        <v>207</v>
+      </c>
+      <c r="M68" t="s">
+        <v>207</v>
+      </c>
+      <c r="N68" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4356,6 +4980,30 @@
       <c r="F73" t="s">
         <v>207</v>
       </c>
+      <c r="G73" t="s">
+        <v>207</v>
+      </c>
+      <c r="H73" t="s">
+        <v>207</v>
+      </c>
+      <c r="I73" t="s">
+        <v>207</v>
+      </c>
+      <c r="J73" t="s">
+        <v>207</v>
+      </c>
+      <c r="K73" t="s">
+        <v>207</v>
+      </c>
+      <c r="L73" t="s">
+        <v>207</v>
+      </c>
+      <c r="M73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N73" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4420,6 +5068,30 @@
       <c r="F75" t="s">
         <v>207</v>
       </c>
+      <c r="G75" t="s">
+        <v>207</v>
+      </c>
+      <c r="H75" t="s">
+        <v>207</v>
+      </c>
+      <c r="I75" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" t="s">
+        <v>207</v>
+      </c>
+      <c r="K75" t="s">
+        <v>207</v>
+      </c>
+      <c r="L75" t="s">
+        <v>207</v>
+      </c>
+      <c r="M75" t="s">
+        <v>207</v>
+      </c>
+      <c r="N75" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4528,6 +5200,30 @@
       <c r="F78" t="s">
         <v>207</v>
       </c>
+      <c r="G78" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" t="s">
+        <v>207</v>
+      </c>
+      <c r="I78" t="s">
+        <v>207</v>
+      </c>
+      <c r="J78" t="s">
+        <v>207</v>
+      </c>
+      <c r="K78" t="s">
+        <v>207</v>
+      </c>
+      <c r="L78" t="s">
+        <v>207</v>
+      </c>
+      <c r="M78" t="s">
+        <v>207</v>
+      </c>
+      <c r="N78" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4592,6 +5288,30 @@
       <c r="F80" t="s">
         <v>207</v>
       </c>
+      <c r="G80" t="s">
+        <v>207</v>
+      </c>
+      <c r="H80" t="s">
+        <v>207</v>
+      </c>
+      <c r="I80" t="s">
+        <v>207</v>
+      </c>
+      <c r="J80" t="s">
+        <v>207</v>
+      </c>
+      <c r="K80" t="s">
+        <v>207</v>
+      </c>
+      <c r="L80" t="s">
+        <v>207</v>
+      </c>
+      <c r="M80" t="s">
+        <v>207</v>
+      </c>
+      <c r="N80" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4612,6 +5332,30 @@
       <c r="F81" t="s">
         <v>207</v>
       </c>
+      <c r="G81" t="s">
+        <v>207</v>
+      </c>
+      <c r="H81" t="s">
+        <v>207</v>
+      </c>
+      <c r="I81" t="s">
+        <v>207</v>
+      </c>
+      <c r="J81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K81" t="s">
+        <v>207</v>
+      </c>
+      <c r="L81" t="s">
+        <v>207</v>
+      </c>
+      <c r="M81" t="s">
+        <v>207</v>
+      </c>
+      <c r="N81" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4632,6 +5376,30 @@
       <c r="F82" t="s">
         <v>207</v>
       </c>
+      <c r="G82" t="s">
+        <v>207</v>
+      </c>
+      <c r="H82" t="s">
+        <v>207</v>
+      </c>
+      <c r="I82" t="s">
+        <v>207</v>
+      </c>
+      <c r="J82" t="s">
+        <v>207</v>
+      </c>
+      <c r="K82" t="s">
+        <v>207</v>
+      </c>
+      <c r="L82" t="s">
+        <v>207</v>
+      </c>
+      <c r="M82" t="s">
+        <v>207</v>
+      </c>
+      <c r="N82" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4916,6 +5684,30 @@
       <c r="F89" t="s">
         <v>207</v>
       </c>
+      <c r="G89" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" t="s">
+        <v>207</v>
+      </c>
+      <c r="I89" t="s">
+        <v>207</v>
+      </c>
+      <c r="J89" t="s">
+        <v>207</v>
+      </c>
+      <c r="K89" t="s">
+        <v>207</v>
+      </c>
+      <c r="L89" t="s">
+        <v>207</v>
+      </c>
+      <c r="M89" t="s">
+        <v>207</v>
+      </c>
+      <c r="N89" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5068,6 +5860,30 @@
       <c r="F93" t="s">
         <v>207</v>
       </c>
+      <c r="G93" t="s">
+        <v>207</v>
+      </c>
+      <c r="H93" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" t="s">
+        <v>207</v>
+      </c>
+      <c r="J93" t="s">
+        <v>207</v>
+      </c>
+      <c r="K93" t="s">
+        <v>207</v>
+      </c>
+      <c r="L93" t="s">
+        <v>207</v>
+      </c>
+      <c r="M93" t="s">
+        <v>207</v>
+      </c>
+      <c r="N93" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5088,6 +5904,30 @@
       <c r="F94" t="s">
         <v>207</v>
       </c>
+      <c r="G94" t="s">
+        <v>207</v>
+      </c>
+      <c r="H94" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" t="s">
+        <v>207</v>
+      </c>
+      <c r="J94" t="s">
+        <v>207</v>
+      </c>
+      <c r="K94" t="s">
+        <v>207</v>
+      </c>
+      <c r="L94" t="s">
+        <v>207</v>
+      </c>
+      <c r="M94" t="s">
+        <v>207</v>
+      </c>
+      <c r="N94" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5284,6 +6124,30 @@
       <c r="F99" t="s">
         <v>207</v>
       </c>
+      <c r="G99" t="s">
+        <v>207</v>
+      </c>
+      <c r="H99" t="s">
+        <v>207</v>
+      </c>
+      <c r="I99" t="s">
+        <v>207</v>
+      </c>
+      <c r="J99" t="s">
+        <v>207</v>
+      </c>
+      <c r="K99" t="s">
+        <v>207</v>
+      </c>
+      <c r="L99" t="s">
+        <v>207</v>
+      </c>
+      <c r="M99" t="s">
+        <v>207</v>
+      </c>
+      <c r="N99" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5348,6 +6212,30 @@
       <c r="F101" t="s">
         <v>207</v>
       </c>
+      <c r="G101" t="s">
+        <v>207</v>
+      </c>
+      <c r="H101" t="s">
+        <v>207</v>
+      </c>
+      <c r="I101" t="s">
+        <v>207</v>
+      </c>
+      <c r="J101" t="s">
+        <v>207</v>
+      </c>
+      <c r="K101" t="s">
+        <v>207</v>
+      </c>
+      <c r="L101" t="s">
+        <v>207</v>
+      </c>
+      <c r="M101" t="s">
+        <v>207</v>
+      </c>
+      <c r="N101" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5632,6 +6520,30 @@
       <c r="F108" t="s">
         <v>207</v>
       </c>
+      <c r="G108" t="s">
+        <v>207</v>
+      </c>
+      <c r="H108" t="s">
+        <v>207</v>
+      </c>
+      <c r="I108" t="s">
+        <v>207</v>
+      </c>
+      <c r="J108" t="s">
+        <v>207</v>
+      </c>
+      <c r="K108" t="s">
+        <v>207</v>
+      </c>
+      <c r="L108" t="s">
+        <v>207</v>
+      </c>
+      <c r="M108" t="s">
+        <v>207</v>
+      </c>
+      <c r="N108" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5652,6 +6564,30 @@
       <c r="F109" t="s">
         <v>207</v>
       </c>
+      <c r="G109" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109" t="s">
+        <v>207</v>
+      </c>
+      <c r="I109" t="s">
+        <v>207</v>
+      </c>
+      <c r="J109" t="s">
+        <v>207</v>
+      </c>
+      <c r="K109" t="s">
+        <v>207</v>
+      </c>
+      <c r="L109" t="s">
+        <v>207</v>
+      </c>
+      <c r="M109" t="s">
+        <v>207</v>
+      </c>
+      <c r="N109" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5804,6 +6740,30 @@
       <c r="F113" t="s">
         <v>207</v>
       </c>
+      <c r="G113" t="s">
+        <v>207</v>
+      </c>
+      <c r="H113" t="s">
+        <v>207</v>
+      </c>
+      <c r="I113" t="s">
+        <v>207</v>
+      </c>
+      <c r="J113" t="s">
+        <v>207</v>
+      </c>
+      <c r="K113" t="s">
+        <v>207</v>
+      </c>
+      <c r="L113" t="s">
+        <v>207</v>
+      </c>
+      <c r="M113" t="s">
+        <v>207</v>
+      </c>
+      <c r="N113" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5824,6 +6784,30 @@
       <c r="F114" t="s">
         <v>207</v>
       </c>
+      <c r="G114" t="s">
+        <v>207</v>
+      </c>
+      <c r="H114" t="s">
+        <v>207</v>
+      </c>
+      <c r="I114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J114" t="s">
+        <v>207</v>
+      </c>
+      <c r="K114" t="s">
+        <v>207</v>
+      </c>
+      <c r="L114" t="s">
+        <v>207</v>
+      </c>
+      <c r="M114" t="s">
+        <v>207</v>
+      </c>
+      <c r="N114" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -6064,6 +7048,30 @@
       <c r="F120" t="s">
         <v>207</v>
       </c>
+      <c r="G120" t="s">
+        <v>207</v>
+      </c>
+      <c r="H120" t="s">
+        <v>207</v>
+      </c>
+      <c r="I120" t="s">
+        <v>207</v>
+      </c>
+      <c r="J120" t="s">
+        <v>207</v>
+      </c>
+      <c r="K120" t="s">
+        <v>207</v>
+      </c>
+      <c r="L120" t="s">
+        <v>207</v>
+      </c>
+      <c r="M120" t="s">
+        <v>207</v>
+      </c>
+      <c r="N120" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6084,6 +7092,30 @@
       <c r="F121" t="s">
         <v>207</v>
       </c>
+      <c r="G121" t="s">
+        <v>207</v>
+      </c>
+      <c r="H121" t="s">
+        <v>207</v>
+      </c>
+      <c r="I121" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" t="s">
+        <v>207</v>
+      </c>
+      <c r="K121" t="s">
+        <v>207</v>
+      </c>
+      <c r="L121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N121" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6104,6 +7136,30 @@
       <c r="F122" t="s">
         <v>207</v>
       </c>
+      <c r="G122" t="s">
+        <v>207</v>
+      </c>
+      <c r="H122" t="s">
+        <v>207</v>
+      </c>
+      <c r="I122" t="s">
+        <v>207</v>
+      </c>
+      <c r="J122" t="s">
+        <v>207</v>
+      </c>
+      <c r="K122" t="s">
+        <v>207</v>
+      </c>
+      <c r="L122" t="s">
+        <v>207</v>
+      </c>
+      <c r="M122" t="s">
+        <v>207</v>
+      </c>
+      <c r="N122" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6344,6 +7400,30 @@
       <c r="F128" t="s">
         <v>207</v>
       </c>
+      <c r="G128" t="s">
+        <v>207</v>
+      </c>
+      <c r="H128" t="s">
+        <v>207</v>
+      </c>
+      <c r="I128" t="s">
+        <v>207</v>
+      </c>
+      <c r="J128" t="s">
+        <v>207</v>
+      </c>
+      <c r="K128" t="s">
+        <v>207</v>
+      </c>
+      <c r="L128" t="s">
+        <v>207</v>
+      </c>
+      <c r="M128" t="s">
+        <v>207</v>
+      </c>
+      <c r="N128" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6408,6 +7488,30 @@
       <c r="F130" t="s">
         <v>207</v>
       </c>
+      <c r="G130" t="s">
+        <v>207</v>
+      </c>
+      <c r="H130" t="s">
+        <v>207</v>
+      </c>
+      <c r="I130" t="s">
+        <v>207</v>
+      </c>
+      <c r="J130" t="s">
+        <v>207</v>
+      </c>
+      <c r="K130" t="s">
+        <v>207</v>
+      </c>
+      <c r="L130" t="s">
+        <v>207</v>
+      </c>
+      <c r="M130" t="s">
+        <v>207</v>
+      </c>
+      <c r="N130" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
@@ -6472,6 +7576,30 @@
       <c r="F132" t="s">
         <v>207</v>
       </c>
+      <c r="G132" t="s">
+        <v>207</v>
+      </c>
+      <c r="H132" t="s">
+        <v>207</v>
+      </c>
+      <c r="I132" t="s">
+        <v>207</v>
+      </c>
+      <c r="J132" t="s">
+        <v>207</v>
+      </c>
+      <c r="K132" t="s">
+        <v>207</v>
+      </c>
+      <c r="L132" t="s">
+        <v>207</v>
+      </c>
+      <c r="M132" t="s">
+        <v>207</v>
+      </c>
+      <c r="N132" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6492,6 +7620,30 @@
       <c r="F133" t="s">
         <v>207</v>
       </c>
+      <c r="G133" t="s">
+        <v>207</v>
+      </c>
+      <c r="H133" t="s">
+        <v>207</v>
+      </c>
+      <c r="I133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J133" t="s">
+        <v>207</v>
+      </c>
+      <c r="K133" t="s">
+        <v>207</v>
+      </c>
+      <c r="L133" t="s">
+        <v>207</v>
+      </c>
+      <c r="M133" t="s">
+        <v>207</v>
+      </c>
+      <c r="N133" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6512,6 +7664,30 @@
       <c r="F134" t="s">
         <v>207</v>
       </c>
+      <c r="G134" t="s">
+        <v>207</v>
+      </c>
+      <c r="H134" t="s">
+        <v>207</v>
+      </c>
+      <c r="I134" t="s">
+        <v>207</v>
+      </c>
+      <c r="J134" t="s">
+        <v>207</v>
+      </c>
+      <c r="K134" t="s">
+        <v>207</v>
+      </c>
+      <c r="L134" t="s">
+        <v>207</v>
+      </c>
+      <c r="M134" t="s">
+        <v>207</v>
+      </c>
+      <c r="N134" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6620,6 +7796,30 @@
       <c r="F137" t="s">
         <v>207</v>
       </c>
+      <c r="G137" t="s">
+        <v>207</v>
+      </c>
+      <c r="H137" t="s">
+        <v>207</v>
+      </c>
+      <c r="I137" t="s">
+        <v>207</v>
+      </c>
+      <c r="J137" t="s">
+        <v>207</v>
+      </c>
+      <c r="K137" t="s">
+        <v>207</v>
+      </c>
+      <c r="L137" t="s">
+        <v>207</v>
+      </c>
+      <c r="M137" t="s">
+        <v>207</v>
+      </c>
+      <c r="N137" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6728,6 +7928,30 @@
       <c r="F140" t="s">
         <v>207</v>
       </c>
+      <c r="G140" t="s">
+        <v>207</v>
+      </c>
+      <c r="H140" t="s">
+        <v>207</v>
+      </c>
+      <c r="I140" t="s">
+        <v>207</v>
+      </c>
+      <c r="J140" t="s">
+        <v>207</v>
+      </c>
+      <c r="K140" t="s">
+        <v>207</v>
+      </c>
+      <c r="L140" t="s">
+        <v>207</v>
+      </c>
+      <c r="M140" t="s">
+        <v>207</v>
+      </c>
+      <c r="N140" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -6748,6 +7972,30 @@
       <c r="F141" t="s">
         <v>207</v>
       </c>
+      <c r="G141" t="s">
+        <v>207</v>
+      </c>
+      <c r="H141" t="s">
+        <v>207</v>
+      </c>
+      <c r="I141" t="s">
+        <v>207</v>
+      </c>
+      <c r="J141" t="s">
+        <v>207</v>
+      </c>
+      <c r="K141" t="s">
+        <v>207</v>
+      </c>
+      <c r="L141" t="s">
+        <v>207</v>
+      </c>
+      <c r="M141" t="s">
+        <v>207</v>
+      </c>
+      <c r="N141" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6768,6 +8016,30 @@
       <c r="F142" t="s">
         <v>207</v>
       </c>
+      <c r="G142" t="s">
+        <v>207</v>
+      </c>
+      <c r="H142" t="s">
+        <v>207</v>
+      </c>
+      <c r="I142" t="s">
+        <v>207</v>
+      </c>
+      <c r="J142" t="s">
+        <v>207</v>
+      </c>
+      <c r="K142" t="s">
+        <v>207</v>
+      </c>
+      <c r="L142" t="s">
+        <v>207</v>
+      </c>
+      <c r="M142" t="s">
+        <v>207</v>
+      </c>
+      <c r="N142" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -6876,6 +8148,30 @@
       <c r="F145" t="s">
         <v>207</v>
       </c>
+      <c r="G145" t="s">
+        <v>207</v>
+      </c>
+      <c r="H145" t="s">
+        <v>207</v>
+      </c>
+      <c r="I145" t="s">
+        <v>207</v>
+      </c>
+      <c r="J145" t="s">
+        <v>207</v>
+      </c>
+      <c r="K145" t="s">
+        <v>207</v>
+      </c>
+      <c r="L145" t="s">
+        <v>207</v>
+      </c>
+      <c r="M145" t="s">
+        <v>207</v>
+      </c>
+      <c r="N145" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7072,6 +8368,30 @@
       <c r="F150" t="s">
         <v>207</v>
       </c>
+      <c r="G150" t="s">
+        <v>207</v>
+      </c>
+      <c r="H150" t="s">
+        <v>207</v>
+      </c>
+      <c r="I150" t="s">
+        <v>207</v>
+      </c>
+      <c r="J150" t="s">
+        <v>207</v>
+      </c>
+      <c r="K150" t="s">
+        <v>207</v>
+      </c>
+      <c r="L150" t="s">
+        <v>207</v>
+      </c>
+      <c r="M150" t="s">
+        <v>207</v>
+      </c>
+      <c r="N150" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7268,6 +8588,30 @@
       <c r="F155" t="s">
         <v>207</v>
       </c>
+      <c r="G155" t="s">
+        <v>207</v>
+      </c>
+      <c r="H155" t="s">
+        <v>207</v>
+      </c>
+      <c r="I155" t="s">
+        <v>207</v>
+      </c>
+      <c r="J155" t="s">
+        <v>207</v>
+      </c>
+      <c r="K155" t="s">
+        <v>207</v>
+      </c>
+      <c r="L155" t="s">
+        <v>207</v>
+      </c>
+      <c r="M155" t="s">
+        <v>207</v>
+      </c>
+      <c r="N155" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7288,6 +8632,30 @@
       <c r="F156" t="s">
         <v>207</v>
       </c>
+      <c r="G156" t="s">
+        <v>207</v>
+      </c>
+      <c r="H156" t="s">
+        <v>207</v>
+      </c>
+      <c r="I156" t="s">
+        <v>207</v>
+      </c>
+      <c r="J156" t="s">
+        <v>207</v>
+      </c>
+      <c r="K156" t="s">
+        <v>207</v>
+      </c>
+      <c r="L156" t="s">
+        <v>207</v>
+      </c>
+      <c r="M156" t="s">
+        <v>207</v>
+      </c>
+      <c r="N156" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7396,6 +8764,30 @@
       <c r="F159" t="s">
         <v>207</v>
       </c>
+      <c r="G159" t="s">
+        <v>207</v>
+      </c>
+      <c r="H159" t="s">
+        <v>207</v>
+      </c>
+      <c r="I159" t="s">
+        <v>207</v>
+      </c>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+      <c r="K159" t="s">
+        <v>207</v>
+      </c>
+      <c r="L159" t="s">
+        <v>207</v>
+      </c>
+      <c r="M159" t="s">
+        <v>207</v>
+      </c>
+      <c r="N159" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7680,6 +9072,30 @@
       <c r="F166" t="s">
         <v>207</v>
       </c>
+      <c r="G166" t="s">
+        <v>207</v>
+      </c>
+      <c r="H166" t="s">
+        <v>207</v>
+      </c>
+      <c r="I166" t="s">
+        <v>207</v>
+      </c>
+      <c r="J166" t="s">
+        <v>207</v>
+      </c>
+      <c r="K166" t="s">
+        <v>207</v>
+      </c>
+      <c r="L166" t="s">
+        <v>207</v>
+      </c>
+      <c r="M166" t="s">
+        <v>207</v>
+      </c>
+      <c r="N166" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -7876,6 +9292,30 @@
       <c r="F171" t="s">
         <v>207</v>
       </c>
+      <c r="G171" t="s">
+        <v>207</v>
+      </c>
+      <c r="H171" t="s">
+        <v>207</v>
+      </c>
+      <c r="I171" t="s">
+        <v>207</v>
+      </c>
+      <c r="J171" t="s">
+        <v>207</v>
+      </c>
+      <c r="K171" t="s">
+        <v>207</v>
+      </c>
+      <c r="L171" t="s">
+        <v>207</v>
+      </c>
+      <c r="M171" t="s">
+        <v>207</v>
+      </c>
+      <c r="N171" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8160,6 +9600,30 @@
       <c r="F178" t="s">
         <v>207</v>
       </c>
+      <c r="G178" t="s">
+        <v>207</v>
+      </c>
+      <c r="H178" t="s">
+        <v>207</v>
+      </c>
+      <c r="I178" t="s">
+        <v>207</v>
+      </c>
+      <c r="J178" t="s">
+        <v>207</v>
+      </c>
+      <c r="K178" t="s">
+        <v>207</v>
+      </c>
+      <c r="L178" t="s">
+        <v>207</v>
+      </c>
+      <c r="M178" t="s">
+        <v>207</v>
+      </c>
+      <c r="N178" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8180,6 +9644,30 @@
       <c r="F179" t="s">
         <v>207</v>
       </c>
+      <c r="G179" t="s">
+        <v>207</v>
+      </c>
+      <c r="H179" t="s">
+        <v>207</v>
+      </c>
+      <c r="I179" t="s">
+        <v>207</v>
+      </c>
+      <c r="J179" t="s">
+        <v>207</v>
+      </c>
+      <c r="K179" t="s">
+        <v>207</v>
+      </c>
+      <c r="L179" t="s">
+        <v>207</v>
+      </c>
+      <c r="M179" t="s">
+        <v>207</v>
+      </c>
+      <c r="N179" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8376,6 +9864,30 @@
       <c r="F184" t="s">
         <v>207</v>
       </c>
+      <c r="G184" t="s">
+        <v>207</v>
+      </c>
+      <c r="H184" t="s">
+        <v>207</v>
+      </c>
+      <c r="I184" t="s">
+        <v>207</v>
+      </c>
+      <c r="J184" t="s">
+        <v>207</v>
+      </c>
+      <c r="K184" t="s">
+        <v>207</v>
+      </c>
+      <c r="L184" t="s">
+        <v>207</v>
+      </c>
+      <c r="M184" t="s">
+        <v>207</v>
+      </c>
+      <c r="N184" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8614,6 +10126,30 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
+        <v>207</v>
+      </c>
+      <c r="G190" t="s">
+        <v>207</v>
+      </c>
+      <c r="H190" t="s">
+        <v>207</v>
+      </c>
+      <c r="I190" t="s">
+        <v>207</v>
+      </c>
+      <c r="J190" t="s">
+        <v>207</v>
+      </c>
+      <c r="K190" t="s">
+        <v>207</v>
+      </c>
+      <c r="L190" t="s">
+        <v>207</v>
+      </c>
+      <c r="M190" t="s">
+        <v>207</v>
+      </c>
+      <c r="N190" t="s">
         <v>207</v>
       </c>
     </row>

--- a/sequences/12_retrieval_2.xlsx
+++ b/sequences/12_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>opfern</t>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>rufen</t>
   </si>
   <si>
     <t>wachsen</t>
   </si>
   <si>
-    <t>hängen</t>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>spielen</t>
   </si>
   <si>
     <t>segeln</t>
   </si>
   <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>grüßen</t>
   </si>
   <si>
     <t>reizen</t>
   </si>
   <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
     <t>kürzen</t>
   </si>
   <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>rechnen</t>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>fischen</t>
   </si>
   <si>
     <t>flower/flower025.jpg</t>
